--- a/x.xlsx
+++ b/x.xlsx
@@ -448,10 +448,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/x.xlsx
+++ b/x.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,36 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -448,10 +478,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +521,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="n">
         <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +564,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>183</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +607,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -500,10 +650,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -513,10 +693,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +736,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +782,37 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -552,10 +822,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -565,9 +865,39 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>660</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>120</v>
+      </c>
+      <c r="I11" t="n">
+        <v>270</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>570</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,10 +908,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>174</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>72</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -591,10 +951,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -604,10 +994,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>476</v>
+        <v>1715</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>981</v>
+      </c>
+      <c r="F14" t="n">
+        <v>880</v>
+      </c>
+      <c r="G14" t="n">
+        <v>770</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1760</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>440</v>
+      </c>
+      <c r="K14" t="n">
+        <v>330</v>
+      </c>
+      <c r="L14" t="n">
+        <v>770</v>
+      </c>
+      <c r="M14" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="15">
@@ -617,9 +1037,39 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>85</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>45</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/x.xlsx
+++ b/x.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,61 +470,133 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>tn1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>63</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>87</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>39</v>
+      </c>
+      <c r="T2" t="n">
+        <v>66</v>
+      </c>
+      <c r="U2" t="n">
+        <v>45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>81</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>tn2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,90 +608,162 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>74</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>40</v>
+      </c>
+      <c r="T3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>tn3</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
         <v>111</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>72</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>42</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>a4</t>
+          <t>tn4</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -628,32 +772,68 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>114</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>54</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>63</v>
+      </c>
+      <c r="X5" t="n">
+        <v>117</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>tn5</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -662,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -671,68 +851,140 @@
         <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>34</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>16</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>38</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>tn6</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
         <v>28</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>18</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>b3</t>
+          <t>tn7</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -745,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -754,32 +1006,68 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11</v>
+      </c>
+      <c r="V8" t="n">
+        <v>32</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>b4</t>
+          <t>tn8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -788,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -809,145 +1097,289 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="N9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>19</v>
+      </c>
+      <c r="T9" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>tn9</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35</v>
+      </c>
+      <c r="G10" t="n">
+        <v>75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>120</v>
+      </c>
+      <c r="I10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="J10" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="K10" t="n">
+        <v>110</v>
+      </c>
+      <c r="L10" t="n">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>50</v>
+      </c>
+      <c r="N10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O10" t="n">
+        <v>75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>90</v>
+      </c>
+      <c r="R10" t="n">
         <v>25</v>
       </c>
-      <c r="F10" t="n">
-        <v>63</v>
-      </c>
-      <c r="G10" t="n">
-        <v>57</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="S10" t="n">
+        <v>100</v>
+      </c>
+      <c r="T10" t="n">
+        <v>105</v>
+      </c>
+      <c r="U10" t="n">
+        <v>80</v>
+      </c>
+      <c r="V10" t="n">
         <v>45</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>60</v>
+      <c r="W10" t="n">
+        <v>105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>d1</t>
+          <t>tn10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
-        <v>660</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G11" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="I11" t="n">
-        <v>270</v>
+        <v>570</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L11" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="N11" t="n">
+        <v>930</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>180</v>
+      </c>
+      <c r="R11" t="n">
+        <v>630</v>
+      </c>
+      <c r="S11" t="n">
+        <v>210</v>
+      </c>
+      <c r="T11" t="n">
+        <v>240</v>
+      </c>
+      <c r="U11" t="n">
+        <v>720</v>
+      </c>
+      <c r="V11" t="n">
+        <v>510</v>
+      </c>
+      <c r="W11" t="n">
+        <v>600</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>e1</t>
+          <t>tn11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" t="n">
+        <v>90</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>54</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>84</v>
+      </c>
+      <c r="M12" t="n">
+        <v>156</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>150</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>186</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>72</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>12</v>
       </c>
-      <c r="F12" t="n">
-        <v>174</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>72</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>60</v>
+      <c r="W12" t="n">
+        <v>102</v>
+      </c>
+      <c r="X12" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>tn12</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -957,120 +1389,702 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" t="n">
+        <v>60</v>
+      </c>
+      <c r="N13" t="n">
+        <v>60</v>
+      </c>
+      <c r="O13" t="n">
+        <v>65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60</v>
+      </c>
+      <c r="R13" t="n">
+        <v>120</v>
+      </c>
+      <c r="S13" t="n">
         <v>45</v>
       </c>
-      <c r="I13" t="n">
+      <c r="T13" t="n">
         <v>100</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>35</v>
-      </c>
-      <c r="M13" t="n">
-        <v>55</v>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>80</v>
+      </c>
+      <c r="W13" t="n">
+        <v>120</v>
+      </c>
+      <c r="X13" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>g1</t>
+          <t>tn13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1715</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="E14" t="n">
-        <v>981</v>
+        <v>770</v>
       </c>
       <c r="F14" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G14" t="n">
+        <v>440</v>
+      </c>
+      <c r="H14" t="n">
+        <v>110</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J14" t="n">
+        <v>660</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1760</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2530</v>
+      </c>
+      <c r="M14" t="n">
+        <v>330</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1870</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>440</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1980</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T14" t="n">
         <v>880</v>
       </c>
-      <c r="G14" t="n">
-        <v>770</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1760</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>440</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
         <v>330</v>
       </c>
-      <c r="L14" t="n">
-        <v>770</v>
-      </c>
-      <c r="M14" t="n">
-        <v>550</v>
+      <c r="V14" t="n">
+        <v>2867</v>
+      </c>
+      <c r="W14" t="n">
+        <v>873</v>
+      </c>
+      <c r="X14" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2640</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>tn14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90</v>
+      </c>
+      <c r="G15" t="n">
+        <v>70</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40</v>
+      </c>
+      <c r="J15" t="n">
+        <v>35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>70</v>
+      </c>
+      <c r="L15" t="n">
+        <v>30</v>
+      </c>
+      <c r="M15" t="n">
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
+        <v>55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="R15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T15" t="n">
+        <v>25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>90</v>
+      </c>
+      <c r="V15" t="n">
+        <v>105</v>
+      </c>
+      <c r="W15" t="n">
+        <v>110</v>
+      </c>
+      <c r="X15" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>tn15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48</v>
+      </c>
+      <c r="F16" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>48</v>
+      </c>
+      <c r="I16" t="n">
+        <v>92</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>95</v>
+      </c>
+      <c r="M16" t="n">
+        <v>108</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>60</v>
+      </c>
+      <c r="S16" t="n">
+        <v>84</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>92</v>
+      </c>
+      <c r="V16" t="n">
+        <v>28</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>tn16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>84</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>231</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <v>84</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>161</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>91</v>
+      </c>
+      <c r="P17" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>56</v>
+      </c>
+      <c r="R17" t="n">
+        <v>98</v>
+      </c>
+      <c r="S17" t="n">
+        <v>42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>189</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>126</v>
+      </c>
+      <c r="W17" t="n">
+        <v>154</v>
+      </c>
+      <c r="X17" t="n">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>tn17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>138</v>
+      </c>
+      <c r="F18" t="n">
+        <v>72</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>78</v>
+      </c>
+      <c r="I18" t="n">
+        <v>78</v>
+      </c>
+      <c r="J18" t="n">
         <v>30</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>85</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" t="n">
-        <v>45</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
+      <c r="K18" t="n">
+        <v>126</v>
+      </c>
+      <c r="L18" t="n">
+        <v>108</v>
+      </c>
+      <c r="M18" t="n">
+        <v>84</v>
+      </c>
+      <c r="N18" t="n">
+        <v>114</v>
+      </c>
+      <c r="O18" t="n">
+        <v>30</v>
+      </c>
+      <c r="P18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>96</v>
+      </c>
+      <c r="R18" t="n">
+        <v>108</v>
+      </c>
+      <c r="S18" t="n">
+        <v>36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>tn18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>285</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>68</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>374</v>
+      </c>
+      <c r="G19" t="n">
+        <v>119</v>
+      </c>
+      <c r="H19" t="n">
+        <v>68</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>119</v>
+      </c>
+      <c r="K19" t="n">
+        <v>272</v>
+      </c>
+      <c r="L19" t="n">
+        <v>408</v>
+      </c>
+      <c r="M19" t="n">
+        <v>476</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>391</v>
+      </c>
+      <c r="R19" t="n">
+        <v>272</v>
+      </c>
+      <c r="S19" t="n">
+        <v>289</v>
+      </c>
+      <c r="T19" t="n">
+        <v>119</v>
+      </c>
+      <c r="U19" t="n">
+        <v>102</v>
+      </c>
+      <c r="V19" t="n">
+        <v>187</v>
+      </c>
+      <c r="W19" t="n">
+        <v>323</v>
+      </c>
+      <c r="X19" t="n">
+        <v>289</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>tn19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>203</v>
+      </c>
+      <c r="D20" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>224</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>224</v>
+      </c>
+      <c r="O20" t="n">
+        <v>96</v>
+      </c>
+      <c r="P20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>224</v>
+      </c>
+      <c r="R20" t="n">
+        <v>832</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>288</v>
+      </c>
+      <c r="V20" t="n">
+        <v>48</v>
+      </c>
+      <c r="W20" t="n">
+        <v>544</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>tn20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>72</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" t="n">
+        <v>112</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>48</v>
+      </c>
+      <c r="I21" t="n">
+        <v>184</v>
+      </c>
+      <c r="J21" t="n">
+        <v>200</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>152</v>
+      </c>
+      <c r="M21" t="n">
+        <v>168</v>
+      </c>
+      <c r="N21" t="n">
+        <v>160</v>
+      </c>
+      <c r="O21" t="n">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>128</v>
+      </c>
+      <c r="R21" t="n">
+        <v>80</v>
+      </c>
+      <c r="S21" t="n">
+        <v>56</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>168</v>
+      </c>
+      <c r="W21" t="n">
+        <v>168</v>
+      </c>
+      <c r="X21" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/x.xlsx
+++ b/x.xlsx
@@ -471,36 +471,16 @@
           <t>tn1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -508,36 +488,16 @@
           <t>tn2</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -545,36 +505,16 @@
           <t>tn3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -582,36 +522,16 @@
           <t>tn4</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -619,36 +539,16 @@
           <t>tn5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,36 +556,16 @@
           <t>tn6</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -693,36 +573,16 @@
           <t>tn7</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -730,36 +590,16 @@
           <t>tn8</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -767,36 +607,16 @@
           <t>tn9</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>85</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -804,36 +624,16 @@
           <t>tn10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71</v>
-      </c>
-      <c r="E11" t="n">
-        <v>57</v>
-      </c>
-      <c r="F11" t="n">
-        <v>72</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" t="n">
-        <v>153</v>
-      </c>
-      <c r="J11" t="n">
-        <v>40</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -841,36 +641,16 @@
           <t>tn11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>38</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -878,36 +658,16 @@
           <t>tn12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -915,36 +675,16 @@
           <t>tn13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63</v>
-      </c>
-      <c r="D14" t="n">
-        <v>136</v>
-      </c>
-      <c r="E14" t="n">
-        <v>108</v>
-      </c>
-      <c r="F14" t="n">
-        <v>146</v>
-      </c>
-      <c r="G14" t="n">
-        <v>91</v>
-      </c>
-      <c r="H14" t="n">
-        <v>114</v>
-      </c>
-      <c r="I14" t="n">
-        <v>106</v>
-      </c>
-      <c r="J14" t="n">
-        <v>65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -952,36 +692,16 @@
           <t>tn14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>31</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/x.xlsx
+++ b/x.xlsx
@@ -471,16 +471,36 @@
           <t>tn1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -488,16 +508,36 @@
           <t>tn2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,16 +545,36 @@
           <t>tn3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -522,16 +582,36 @@
           <t>tn4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -539,16 +619,36 @@
           <t>tn5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -556,16 +656,36 @@
           <t>tn6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -573,16 +693,36 @@
           <t>tn7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -590,16 +730,36 @@
           <t>tn8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -607,16 +767,36 @@
           <t>tn9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -624,16 +804,36 @@
           <t>tn10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>72</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -641,16 +841,36 @@
           <t>tn11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -658,16 +878,36 @@
           <t>tn12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -675,16 +915,36 @@
           <t>tn13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>63</v>
+      </c>
+      <c r="D14" t="n">
+        <v>136</v>
+      </c>
+      <c r="E14" t="n">
+        <v>108</v>
+      </c>
+      <c r="F14" t="n">
+        <v>146</v>
+      </c>
+      <c r="G14" t="n">
+        <v>91</v>
+      </c>
+      <c r="H14" t="n">
+        <v>114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" t="n">
+        <v>65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -692,16 +952,36 @@
           <t>tn14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
